--- a/LR8/compare.xlsx
+++ b/LR8/compare.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nagal\GitHub\Multimedia_processing\LR8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B003E54-0E4F-40B1-AD36-8E1CA02729C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C618C10-C802-4E79-92B2-8F781A3828F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6828" yWindow="4224" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Время работы методы</t>
   </si>
@@ -48,10 +48,22 @@
     <t>30 fps</t>
   </si>
   <si>
-    <t>1-15 fps</t>
-  </si>
-  <si>
-    <t>1 fps</t>
+    <t>5 fps</t>
+  </si>
+  <si>
+    <t>17-22 fps</t>
+  </si>
+  <si>
+    <t>4/4</t>
+  </si>
+  <si>
+    <t>3/4</t>
+  </si>
+  <si>
+    <t>32.351 секунды</t>
+  </si>
+  <si>
+    <t>17.247 секунды</t>
   </si>
 </sst>
 </file>
@@ -87,8 +99,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -372,13 +385,13 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -393,6 +406,12 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -410,15 +429,21 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
